--- a/BalanceSheet/LNT_bal.xlsx
+++ b/BalanceSheet/LNT_bal.xlsx
@@ -503,7 +503,7 @@
         <v>222000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>13700000.0</v>
+        <v>221000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>227000000.0</v>
@@ -1492,10 +1492,10 @@
         <v>417000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>14500000.0</v>
+        <v>430000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-6200000.0</v>
+        <v>375000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>422000000.0</v>
@@ -2598,19 +2598,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10000000.0</v>
+        <v>1814000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>41900000.0</v>
+        <v>1803000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>26000000.0</v>
+        <v>1761000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>27100000.0</v>
+        <v>1736000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>10800000.0</v>
+        <v>1714000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>1703000000.0</v>
